--- a/game faults and bugs.xlsx
+++ b/game faults and bugs.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colin\Desktop\Development-Project-communal (1)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61367F28-D649-49F5-B684-8F9A4F35FC50}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="132" windowWidth="20112" windowHeight="7932" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Small cursor displaying on spash screen</t>
   </si>
@@ -27,9 +33,6 @@
     <t>Discription</t>
   </si>
   <si>
-    <t>guests cannot submit questions'</t>
-  </si>
-  <si>
     <t xml:space="preserve">The warning guests cannot submit questions is unneeded. </t>
   </si>
   <si>
@@ -39,9 +42,6 @@
     <t>From the main menu the button for submit question should only be active if a user has signed in with an appropriate account</t>
   </si>
   <si>
-    <t>remove it</t>
-  </si>
-  <si>
     <t>Programer</t>
   </si>
   <si>
@@ -51,30 +51,13 @@
     <t>fail to load/error with no connection</t>
   </si>
   <si>
-    <t>on initiate if the game cannot hit the server nothing happens from user perspective</t>
-  </si>
-  <si>
-    <t>Minimum solution: error message to user, exit program
-Best solution: game loads from locally stored data</t>
-  </si>
-  <si>
     <t>Asset folder _Tutorial</t>
   </si>
   <si>
     <t>Inside our game folder we still have an asset folder _Tutorial, do we need this?</t>
   </si>
   <si>
-    <t>Delete all unused files and folders</t>
-  </si>
-  <si>
     <t>back buton</t>
-  </si>
-  <si>
-    <t>users need a way to go back a scene</t>
-  </si>
-  <si>
-    <t>add 'back' buttons to the GUI
-add background script that allows for android back button to go back scenes</t>
   </si>
   <si>
     <t>Menu scene is confusing</t>
@@ -100,19 +83,48 @@
     <t xml:space="preserve">The location of each answer button needs to be randomised within each question. This is vital because of how the data is retrived from the database, the correct answer will always be first </t>
   </si>
   <si>
-    <t>have answer buttons should change color when user makes a selection</t>
-  </si>
-  <si>
-    <t>answerButtonArray[Random(0,3)]</t>
-  </si>
-  <si>
     <t>aaron</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Col</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can see the method in the LoadHelper class to have the slider as an progress bar. The problem is the spash screen loads so fast it just looks like a glitch.
+</t>
+  </si>
+  <si>
+    <t>I have set the slider as not active in the editor &amp; commented out the call to the slider in the LoadHelper Class</t>
+  </si>
+  <si>
+    <t>Menu scene background is different</t>
+  </si>
+  <si>
+    <t>The patterened background should be applied to all scenes</t>
+  </si>
+  <si>
+    <t>Name above menu persisting after logout</t>
+  </si>
+  <si>
+    <t>If I log in, then log in as a guest it should have 'guest' above the menu. Instead I am seeing the user name from the first time I logged in</t>
+  </si>
+  <si>
+    <t>users need a way to go back a scene
+add 'back' buttons to the GUI
+add background script that allows for android back button to go back scenes</t>
+  </si>
+  <si>
+    <t>on initiate if the game cannot hit the server nothing happens from user perspective
+Minimum solution: error message to user, exit program
+Best solution: game loads from locally stored data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,15 +162,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -190,7 +199,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -198,6 +207,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -207,20 +219,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>120015</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>399760</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247360</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>609394</xdr:rowOff>
+      <xdr:rowOff>75994</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -233,8 +251,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8286750" y="104775"/>
-          <a:ext cx="2323810" cy="1647619"/>
+          <a:off x="11477625" y="120015"/>
+          <a:ext cx="2394295" cy="1601899"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -289,7 +307,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,9 +340,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,6 +392,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,24 +584,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="36.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.44140625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -557,104 +609,111 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -665,24 +724,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/game faults and bugs.xlsx
+++ b/game faults and bugs.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colin\Desktop\Development-Project-communal (1)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61367F28-D649-49F5-B684-8F9A4F35FC50}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="132" windowWidth="20112" windowHeight="7932" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Small cursor displaying on spash screen</t>
   </si>
@@ -81,9 +75,6 @@
   </si>
   <si>
     <t xml:space="preserve">The location of each answer button needs to be randomised within each question. This is vital because of how the data is retrived from the database, the correct answer will always be first </t>
-  </si>
-  <si>
-    <t>aaron</t>
   </si>
   <si>
     <t>Notes</t>
@@ -119,12 +110,34 @@
     <t>on initiate if the game cannot hit the server nothing happens from user perspective
 Minimum solution: error message to user, exit program
 Best solution: game loads from locally stored data</t>
+  </si>
+  <si>
+    <t>It is possible to make multiple answer selections</t>
+  </si>
+  <si>
+    <t>after a user makes selects an answer they need to blocked from making another selection</t>
+  </si>
+  <si>
+    <t>added a clicked bool that is checked before a user makes a selection. It is set when they make a selection and reset when the next question is shown.</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>added color to answer button on user selection. 
+Added time delay so users can see it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ramdomised where buttons are </t>
+  </si>
+  <si>
+    <t>duplications of questions are bein shown within the same game</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,7 +212,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -235,7 +248,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -307,7 +320,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,26 +353,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,23 +388,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -584,24 +563,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="45.44140625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="36.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -615,7 +594,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -626,13 +605,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -643,15 +622,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="100.9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -662,7 +641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -675,45 +654,76 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -724,24 +734,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/game faults and bugs.xlsx
+++ b/game faults and bugs.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Games\Uni\Development-Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE32047-BED0-4211-91BA-59E185156911}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Small cursor displaying on spash screen</t>
   </si>
@@ -132,12 +138,33 @@
   </si>
   <si>
     <t>duplications of questions are bein shown within the same game</t>
+  </si>
+  <si>
+    <t>There is a catch for this. DisplayErrorModal() method - positive action retries connection, negative action quits game.</t>
+  </si>
+  <si>
+    <t>Adjusted menu for single player specific functionality.</t>
+  </si>
+  <si>
+    <t>Have removed</t>
+  </si>
+  <si>
+    <t>Have added back button, will add android back button as well</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Can implement these changes - will clutter hierarchy though</t>
+  </si>
+  <si>
+    <t>Disagree. You'll see the button outlines if you do this and if you change the button to transparent the ripple effect doesn't show. I did implement this at first and it looked horrible.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,7 +239,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -241,14 +268,14 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>247360</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>75994</xdr:rowOff>
+      <xdr:rowOff>37894</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -320,7 +347,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,9 +380,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,6 +432,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -563,11 +624,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,23 +675,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="100.9" x14ac:dyDescent="0.3">
+      <c r="E3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="43.15" x14ac:dyDescent="0.3">
+      <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -640,21 +707,30 @@
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="43.15" x14ac:dyDescent="0.3">
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="E6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -685,12 +761,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -705,6 +784,9 @@
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -734,7 +816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -746,7 +828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/game faults and bugs.xlsx
+++ b/game faults and bugs.xlsx
@@ -1,28 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Games\Uni\Development-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PeacheyMacbook/Google Drive/Uni/Development-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE32047-BED0-4211-91BA-59E185156911}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="30580" windowHeight="16160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>Small cursor displaying on spash screen</t>
   </si>
@@ -159,12 +163,27 @@
   </si>
   <si>
     <t>Disagree. You'll see the button outlines if you do this and if you change the button to transparent the ripple effect doesn't show. I did implement this at first and it looked horrible.</t>
+  </si>
+  <si>
+    <t>Can see username behind 'New Game' on menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After log in, the username text can be partially seen behind the 'New Game' text. </t>
+  </si>
+  <si>
+    <t>Lord of the Rings question has no answer buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every other question but this one question has no answer buttons present. </t>
+  </si>
+  <si>
+    <t>Aaron</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -239,7 +258,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -275,7 +294,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -293,6 +312,80 @@
         <a:xfrm>
           <a:off x="11477625" y="120015"/>
           <a:ext cx="2394295" cy="1601899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect t="26545" b="33210"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12407900" y="9359899"/>
+          <a:ext cx="1663700" cy="1193801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect b="63604"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14097000" y="9918735"/>
+          <a:ext cx="1968500" cy="1257266"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -350,9 +443,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -380,31 +473,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -432,23 +508,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -624,24 +683,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="45.42578125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="36.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.5" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -658,7 +717,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -675,7 +734,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -686,7 +745,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -697,7 +756,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -711,7 +770,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -722,7 +781,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -733,7 +792,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -747,7 +806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -761,7 +820,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -772,7 +831,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -789,7 +848,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -803,9 +862,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -816,24 +897,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/game faults and bugs.xlsx
+++ b/game faults and bugs.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PeacheyMacbook/Google Drive/Uni/Development-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Games\Uni\Development-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B80DC1-7A84-47DE-B8BD-763DF6574E0E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="30580" windowHeight="16160"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="30585" windowHeight="16155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>Small cursor displaying on spash screen</t>
   </si>
@@ -178,12 +179,21 @@
   </si>
   <si>
     <t>Aaron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changed the layout </t>
+  </si>
+  <si>
+    <t>Added AndroidBackHelper</t>
+  </si>
+  <si>
+    <t>See DisplayErrorModal()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -258,7 +268,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -294,7 +304,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -335,7 +345,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -372,7 +388,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -683,24 +705,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="45.5" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="2"/>
+    <col min="1" max="1" width="36.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -717,7 +739,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -734,7 +756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -745,18 +767,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -770,7 +795,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -781,18 +806,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -806,7 +834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -820,7 +848,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -831,7 +859,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -848,7 +876,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -862,23 +890,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D14" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="E14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -897,24 +931,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
